--- a/TEST_CASE_SOUCEDEMO.xlsx
+++ b/TEST_CASE_SOUCEDEMO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="170">
   <si>
     <t>Test case Name</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Steps</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1625,7 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="13">
@@ -2202,7 +2205,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="132" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="5">
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="132" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="5">
@@ -2260,7 +2263,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="132" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5">
@@ -2289,7 +2292,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="132" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5">
@@ -2501,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>3</v>
@@ -3013,7 +3016,7 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -3535,7 +3538,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2">
@@ -3593,7 +3596,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
@@ -3651,7 +3654,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2">
